--- a/Projects/CCRU/Data/Target Execution 2018.xlsx
+++ b/Projects/CCRU/Data/Target Execution 2018.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="986" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Target Execution 2018" sheetId="1" state="visible" r:id="rId2"/>
@@ -17,6 +17,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Target Execution 2018'!$A$1:$AD$31</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Target Execution 2018'!$A$1:$AD$31</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">'Target Execution 2018'!$A$1:$AD$31</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">'Target Execution 2018'!$A$1:$AD$31</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -325,7 +326,7 @@
     <t xml:space="preserve">Menu Activation</t>
   </si>
   <si>
-    <t xml:space="preserve">Check KPI score</t>
+    <t xml:space="preserve">Number of KPI passed</t>
   </si>
   <si>
     <t xml:space="preserve">KPI: Menu Activation</t>
@@ -755,18 +756,18 @@
   </sheetPr>
   <dimension ref="A1:AD31"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F18" activeCellId="0" sqref="F18"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C35" activeCellId="0" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.30364372469636"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="25.336032388664"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="18.8542510121457"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="1" width="9.30364372469636"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="28.0364372469636"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="1" width="9.30364372469636"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.71255060728745"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="26.4210526315789"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="19.7085020242915"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="1" width="9.71255060728745"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="29.2793522267206"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="1" width="9.71255060728745"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1909,7 +1910,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="41" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
         <v>30</v>
       </c>
@@ -1957,7 +1958,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="41" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
         <v>30</v>
       </c>
@@ -2005,7 +2006,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="41" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
         <v>30</v>
       </c>
@@ -2053,7 +2054,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="41" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
         <v>30</v>
       </c>
@@ -2101,7 +2102,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="41" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
         <v>30</v>
       </c>
@@ -2149,7 +2150,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="41" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
         <v>30</v>
       </c>
@@ -2197,7 +2198,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="41" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
         <v>30</v>
       </c>
@@ -2245,7 +2246,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="41" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
         <v>30</v>
       </c>
@@ -2293,7 +2294,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="41" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
         <v>30</v>
       </c>
@@ -2341,7 +2342,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="41" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
         <v>30</v>
       </c>
@@ -2389,7 +2390,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="41" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
         <v>30</v>
       </c>
@@ -2437,7 +2438,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="41" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
